--- a/docs/Billetera.xlsx
+++ b/docs/Billetera.xlsx
@@ -8,16 +8,17 @@
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Trasacciones" sheetId="2" r:id="rId2"/>
-    <sheet name="Prestamos" sheetId="3" r:id="rId3"/>
-    <sheet name="Pagos" sheetId="4" r:id="rId4"/>
+    <sheet name="Billetera" sheetId="2" r:id="rId2"/>
+    <sheet name="Prestamo" sheetId="3" r:id="rId3"/>
+    <sheet name="PagoEfectivo" sheetId="4" r:id="rId4"/>
+    <sheet name="Hoja2" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="33">
   <si>
     <t>Ruddy</t>
   </si>
@@ -82,9 +83,6 @@
     <t>usuario</t>
   </si>
   <si>
-    <t>transaccion</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -110,6 +108,15 @@
   </si>
   <si>
     <t>gerardo</t>
+  </si>
+  <si>
+    <t>recibe</t>
+  </si>
+  <si>
+    <t>da</t>
+  </si>
+  <si>
+    <t>tipo</t>
   </si>
 </sst>
 </file>
@@ -795,7 +802,7 @@
   <dimension ref="A3:O33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -804,23 +811,32 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -1194,7 +1210,7 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G17">
         <f t="shared" si="0"/>
@@ -1223,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G18">
         <f t="shared" si="0"/>
@@ -1252,7 +1268,7 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G19">
         <f t="shared" si="0"/>
@@ -1281,7 +1297,7 @@
         <v>16</v>
       </c>
       <c r="F20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G20">
         <f t="shared" si="0"/>
@@ -1310,7 +1326,7 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G21">
         <f t="shared" si="0"/>
@@ -1339,7 +1355,7 @@
         <v>15</v>
       </c>
       <c r="F22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G22">
         <f t="shared" ref="G22:I32" si="1">IF($B22=G$4, IF($C22&gt;0,$C22*-1,$D22),0)</f>
@@ -1536,7 +1552,7 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G29">
         <f t="shared" si="1"/>
@@ -1562,7 +1578,7 @@
         <v>300</v>
       </c>
       <c r="F30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G30">
         <f t="shared" si="1"/>
@@ -1605,7 +1621,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <f>SUM(C5:C32)</f>
+        <v>7900</v>
+      </c>
+      <c r="D33">
+        <f>SUM(D5:D32)</f>
+        <v>7900</v>
+      </c>
       <c r="G33">
         <f>SUM(G5:G32)</f>
         <v>0</v>
@@ -1634,25 +1658,25 @@
   <dimension ref="A3:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
@@ -1717,7 +1741,7 @@
         <v>500</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1745,7 +1769,7 @@
         <v>500</v>
       </c>
       <c r="F10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="4:5" x14ac:dyDescent="0.25">
@@ -1771,28 +1795,28 @@
   <dimension ref="A3:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+      <c r="C3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
@@ -1804,13 +1828,13 @@
         <v>12</v>
       </c>
       <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" t="s">
         <v>24</v>
       </c>
-      <c r="I4" t="s">
-        <v>25</v>
-      </c>
       <c r="J4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1827,7 +1851,7 @@
         <v>500</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I5">
         <f>IF($G5=I$4, IF($E5&gt;0,$E5*-1,$F5),0)</f>
@@ -1852,10 +1876,10 @@
         <v>500</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I6">
-        <f t="shared" ref="I6:J16" si="1">IF($G6=I$4, IF($E6&gt;0,$E6*-1,$F6),0)</f>
+        <f t="shared" ref="I6:I16" si="1">IF($G6=I$4, IF($E6&gt;0,$E6*-1,$F6),0)</f>
         <v>0</v>
       </c>
       <c r="J6">
@@ -1877,7 +1901,7 @@
         <v>1100</v>
       </c>
       <c r="G7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I7">
         <f t="shared" si="1"/>
@@ -1902,7 +1926,7 @@
         <v>500</v>
       </c>
       <c r="G8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I8">
         <f t="shared" si="1"/>
@@ -1927,7 +1951,7 @@
         <v>300</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I9">
         <f t="shared" si="1"/>
@@ -2056,4 +2080,859 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:O33"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="21.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>500</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ref="G5:I21" si="0">IF($B5=G$4, IF($C5&gt;0,$C5*-1,$D5),0)</f>
+        <v>-500</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f>IF($B5=I$4, IF($C5&gt;0,$C5*-1,$D5),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <v>500</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>1000</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>-1000</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8">
+        <v>1000</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9">
+        <v>600</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>-600</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10">
+        <v>600</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <v>200</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>-200</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>200</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13">
+        <v>200</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>-200</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>200</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>1500</v>
+      </c>
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>-1500</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16">
+        <v>1500</v>
+      </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>1000</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>-1000</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18">
+        <v>1000</v>
+      </c>
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19">
+        <v>500</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>-500</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>500</v>
+      </c>
+      <c r="E20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>17</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21">
+        <v>1100</v>
+      </c>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="0"/>
+        <v>-1100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>18</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22">
+        <v>1100</v>
+      </c>
+      <c r="E22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22">
+        <f t="shared" ref="G22:I32" si="1">IF($B22=G$4, IF($C22&gt;0,$C22*-1,$D22),0)</f>
+        <v>1100</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>19</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23">
+        <v>500</v>
+      </c>
+      <c r="E23" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>-500</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24">
+        <v>500</v>
+      </c>
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>21</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25">
+        <v>200</v>
+      </c>
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="1"/>
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>22</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26">
+        <v>200</v>
+      </c>
+      <c r="E26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>23</v>
+      </c>
+      <c r="B27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27">
+        <v>300</v>
+      </c>
+      <c r="E27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="1"/>
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28">
+        <v>300</v>
+      </c>
+      <c r="E28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" t="s">
+        <v>8</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29">
+        <v>300</v>
+      </c>
+      <c r="E29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="1"/>
+        <v>-300</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>26</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30">
+        <v>300</v>
+      </c>
+      <c r="F30" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <f>SUM(C5:C32)</f>
+        <v>7900</v>
+      </c>
+      <c r="D33">
+        <f>SUM(D5:D32)</f>
+        <v>7900</v>
+      </c>
+      <c r="G33">
+        <f>SUM(G5:G32)</f>
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <f>SUM(H5:H32)</f>
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <f>SUM(I5:I32)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="L3:O3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/Billetera.xlsx
+++ b/docs/Billetera.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="50">
   <si>
     <t>Ruddy</t>
   </si>
@@ -153,6 +153,27 @@
   </si>
   <si>
     <t>FILTRO</t>
+  </si>
+  <si>
+    <t>Compra</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+ - </t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Recibido</t>
+  </si>
+  <si>
+    <t>Depende</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + -</t>
   </si>
 </sst>
 </file>
@@ -383,17 +404,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -401,46 +416,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -477,13 +462,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -515,6 +494,51 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1146,39 +1170,39 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
     </row>
     <row r="4" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="4" t="s">
         <v>28</v>
       </c>
       <c r="I4" t="s">
@@ -1192,888 +1216,888 @@
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="9">
+      <c r="B5" s="7">
         <v>1</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="10">
+      <c r="C5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="8">
         <v>500</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10" t="s">
+      <c r="E5" s="8"/>
+      <c r="F5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="56" t="s">
+      <c r="G5" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10">
+      <c r="H5" s="8"/>
+      <c r="I5" s="8">
         <f t="shared" ref="I5:K21" si="0">IF($C5=I$4, IF($D5&gt;0,$D5*-1,$E5),0)</f>
         <v>-500</v>
       </c>
-      <c r="J5" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K5" s="10">
+      <c r="J5" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="8">
         <f>IF($C5=K$4, IF($D5&gt;0,$D5*-1,$E5),0)</f>
         <v>0</v>
       </c>
-      <c r="L5" s="10"/>
-      <c r="M5" s="11" t="s">
+      <c r="L5" s="8"/>
+      <c r="M5" s="57" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="12">
+      <c r="B6" s="9">
         <v>2</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13">
+      <c r="D6" s="10"/>
+      <c r="E6" s="10">
         <v>500</v>
       </c>
-      <c r="F6" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="39" t="s">
+      <c r="F6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J6" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K6" s="13">
+      <c r="H6" s="10"/>
+      <c r="I6" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="10">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="L6" s="13"/>
-      <c r="M6" s="14"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="58"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="9">
+      <c r="B7" s="7">
         <v>3</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="10">
+      <c r="C7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="8">
         <v>1000</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="56" t="s">
+      <c r="E7" s="8"/>
+      <c r="F7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10">
+      <c r="H7" s="8"/>
+      <c r="I7" s="8">
         <f t="shared" si="0"/>
         <v>-1000</v>
       </c>
-      <c r="J7" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L7" s="10"/>
-      <c r="M7" s="11" t="s">
+      <c r="J7" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="8"/>
+      <c r="M7" s="57" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="8" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="12">
+      <c r="B8" s="9">
         <v>4</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13">
+      <c r="C8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10">
         <v>1000</v>
       </c>
-      <c r="F8" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="39" t="s">
+      <c r="F8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J8" s="13">
+      <c r="H8" s="10"/>
+      <c r="I8" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="10">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="K8" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L8" s="13"/>
-      <c r="M8" s="14"/>
+      <c r="K8" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="10"/>
+      <c r="M8" s="58"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="9">
+      <c r="B9" s="7">
         <v>5</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="15">
+      <c r="C9" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="11">
         <v>600</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15" t="s">
+      <c r="E9" s="11"/>
+      <c r="F9" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="57" t="s">
+      <c r="G9" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="15">
+      <c r="H9" s="11"/>
+      <c r="I9" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="11">
         <f t="shared" si="0"/>
         <v>-600</v>
       </c>
-      <c r="K9" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L9" s="15"/>
-      <c r="M9" s="16" t="s">
+      <c r="K9" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="11"/>
+      <c r="M9" s="50" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="10" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="12">
+      <c r="B10" s="9">
         <v>6</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17">
+      <c r="D10" s="12"/>
+      <c r="E10" s="12">
         <v>600</v>
       </c>
-      <c r="F10" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="40" t="s">
+      <c r="F10" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="17">
+      <c r="H10" s="12"/>
+      <c r="I10" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="12">
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="L10" s="17"/>
-      <c r="M10" s="18"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="51"/>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B11" s="9">
+      <c r="B11" s="7">
         <v>7</v>
       </c>
-      <c r="C11" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="19">
+      <c r="C11" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="13">
         <v>200</v>
       </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="58" t="s">
+      <c r="E11" s="13"/>
+      <c r="F11" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="19">
+      <c r="H11" s="13"/>
+      <c r="I11" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="13">
         <f t="shared" si="0"/>
         <v>-200</v>
       </c>
-      <c r="K11" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L11" s="19"/>
-      <c r="M11" s="20" t="s">
+      <c r="K11" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="13"/>
+      <c r="M11" s="48" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="12">
+      <c r="B12" s="9">
         <v>8</v>
       </c>
-      <c r="C12" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21">
+      <c r="C12" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14">
         <v>200</v>
       </c>
-      <c r="F12" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="41" t="s">
+      <c r="F12" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21">
+      <c r="H12" s="14"/>
+      <c r="I12" s="14">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="J12" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L12" s="21"/>
-      <c r="M12" s="22"/>
+      <c r="J12" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="14"/>
+      <c r="M12" s="49"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="9">
+      <c r="B13" s="7">
         <v>9</v>
       </c>
-      <c r="C13" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="19">
+      <c r="C13" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="13">
         <v>200</v>
       </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="58" t="s">
+      <c r="E13" s="13"/>
+      <c r="F13" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J13" s="19">
+      <c r="H13" s="13"/>
+      <c r="I13" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="13">
         <f t="shared" si="0"/>
         <v>-200</v>
       </c>
-      <c r="K13" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L13" s="19"/>
-      <c r="M13" s="20" t="s">
+      <c r="K13" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="13"/>
+      <c r="M13" s="48" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="14" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="12">
-        <v>10</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21">
+      <c r="B14" s="9">
+        <v>10</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14">
         <v>200</v>
       </c>
-      <c r="F14" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="41" t="s">
+      <c r="F14" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21">
+      <c r="H14" s="14"/>
+      <c r="I14" s="14">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="J14" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L14" s="21"/>
-      <c r="M14" s="22"/>
+      <c r="J14" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="14"/>
+      <c r="M14" s="49"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="9">
+      <c r="B15" s="7">
         <v>11</v>
       </c>
-      <c r="C15" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="23">
+      <c r="C15" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="15">
         <v>1500</v>
       </c>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="59" t="s">
+      <c r="E15" s="15"/>
+      <c r="F15" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23">
+      <c r="H15" s="15"/>
+      <c r="I15" s="15">
         <f t="shared" si="0"/>
         <v>-1500</v>
       </c>
-      <c r="J15" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L15" s="23"/>
-      <c r="M15" s="24" t="s">
+      <c r="J15" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="15"/>
+      <c r="M15" s="55" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="16" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="12">
+      <c r="B16" s="9">
         <v>12</v>
       </c>
-      <c r="C16" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25">
+      <c r="C16" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16">
         <v>1500</v>
       </c>
-      <c r="F16" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" s="42" t="s">
+      <c r="F16" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="25">
+      <c r="H16" s="16"/>
+      <c r="I16" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="16">
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="K16" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L16" s="25"/>
-      <c r="M16" s="26"/>
+      <c r="K16" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="16"/>
+      <c r="M16" s="56"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="9">
+      <c r="B17" s="7">
         <v>13</v>
       </c>
-      <c r="C17" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="44">
+      <c r="C17" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="32">
         <v>1000</v>
       </c>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="60" t="s">
+      <c r="E17" s="32"/>
+      <c r="F17" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J17" s="44">
+      <c r="H17" s="32"/>
+      <c r="I17" s="32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="32">
         <f t="shared" si="0"/>
         <v>-1000</v>
       </c>
-      <c r="K17" s="44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L17" s="44"/>
-      <c r="M17" s="45" t="s">
+      <c r="K17" s="32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="32"/>
+      <c r="M17" s="59" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="18" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="12">
+      <c r="B18" s="9">
         <v>14</v>
       </c>
-      <c r="C18" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46">
+      <c r="C18" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33">
         <v>1000</v>
       </c>
-      <c r="F18" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" s="54" t="s">
+      <c r="F18" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46">
+      <c r="H18" s="33"/>
+      <c r="I18" s="33">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="J18" s="46">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="46">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L18" s="46"/>
-      <c r="M18" s="47"/>
+      <c r="J18" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="33"/>
+      <c r="M18" s="60"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="9">
+      <c r="B19" s="7">
         <v>15</v>
       </c>
-      <c r="C19" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="27">
+      <c r="C19" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="17">
         <v>500</v>
       </c>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="61" t="s">
+      <c r="E19" s="17"/>
+      <c r="F19" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="27">
+      <c r="H19" s="17"/>
+      <c r="I19" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="17">
         <f t="shared" si="0"/>
         <v>-500</v>
       </c>
-      <c r="K19" s="27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L19" s="27"/>
-      <c r="M19" s="28" t="s">
+      <c r="K19" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="17"/>
+      <c r="M19" s="52" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="20" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="12">
-        <v>16</v>
-      </c>
-      <c r="C20" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29">
+      <c r="B20" s="9">
+        <v>16</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18">
         <v>500</v>
       </c>
-      <c r="F20" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="43" t="s">
+      <c r="F20" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29">
+      <c r="H20" s="18"/>
+      <c r="I20" s="18">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="J20" s="29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K20" s="29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L20" s="29"/>
-      <c r="M20" s="30"/>
+      <c r="J20" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="18"/>
+      <c r="M20" s="53"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="9">
+      <c r="B21" s="7">
         <v>17</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="27">
+      <c r="D21" s="17">
         <v>1100</v>
       </c>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" s="61" t="s">
+      <c r="E21" s="17"/>
+      <c r="F21" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J21" s="27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="27">
+      <c r="H21" s="17"/>
+      <c r="I21" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="17">
         <f t="shared" si="0"/>
         <v>-1100</v>
       </c>
-      <c r="L21" s="27"/>
-      <c r="M21" s="28" t="s">
+      <c r="L21" s="17"/>
+      <c r="M21" s="52" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="22" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="12">
+      <c r="B22" s="9">
         <v>18</v>
       </c>
-      <c r="C22" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29">
+      <c r="C22" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18">
         <v>1100</v>
       </c>
-      <c r="F22" s="29" t="s">
+      <c r="F22" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="G22" s="43" t="s">
+      <c r="G22" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29">
+      <c r="H22" s="18"/>
+      <c r="I22" s="18">
         <f t="shared" ref="I22:K32" si="1">IF($C22=I$4, IF($D22&gt;0,$D22*-1,$E22),0)</f>
         <v>1100</v>
       </c>
-      <c r="J22" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K22" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L22" s="29"/>
-      <c r="M22" s="30"/>
+      <c r="J22" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="18"/>
+      <c r="M22" s="53"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="9">
+      <c r="B23" s="7">
         <v>19</v>
       </c>
-      <c r="C23" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="10">
+      <c r="C23" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="8">
         <v>500</v>
       </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10" t="s">
+      <c r="E23" s="8"/>
+      <c r="F23" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G23" s="56" t="s">
+      <c r="G23" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10">
+      <c r="H23" s="8"/>
+      <c r="I23" s="8">
         <f t="shared" si="1"/>
         <v>-500</v>
       </c>
-      <c r="J23" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K23" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L23" s="10"/>
-      <c r="M23" s="11" t="s">
+      <c r="J23" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="8"/>
+      <c r="M23" s="57" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="24" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="12">
+      <c r="B24" s="9">
         <v>20</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13">
+      <c r="D24" s="10"/>
+      <c r="E24" s="10">
         <v>500</v>
       </c>
-      <c r="F24" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" s="39" t="s">
+      <c r="F24" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J24" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K24" s="13">
+      <c r="H24" s="10"/>
+      <c r="I24" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="10">
         <f t="shared" si="1"/>
         <v>500</v>
       </c>
-      <c r="L24" s="13"/>
-      <c r="M24" s="14"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="58"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B25" s="9">
+      <c r="B25" s="7">
         <v>21</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="19">
+      <c r="D25" s="13">
         <v>200</v>
       </c>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G25" s="58" t="s">
+      <c r="E25" s="13"/>
+      <c r="F25" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J25" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K25" s="19">
+      <c r="H25" s="13"/>
+      <c r="I25" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="13">
         <f t="shared" si="1"/>
         <v>-200</v>
       </c>
-      <c r="L25" s="19"/>
-      <c r="M25" s="20" t="s">
+      <c r="L25" s="13"/>
+      <c r="M25" s="48" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="26" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="12">
+      <c r="B26" s="9">
         <v>22</v>
       </c>
-      <c r="C26" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21">
+      <c r="C26" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14">
         <v>200</v>
       </c>
-      <c r="F26" s="21" t="s">
+      <c r="F26" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G26" s="41" t="s">
+      <c r="G26" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21">
+      <c r="H26" s="14"/>
+      <c r="I26" s="14">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="J26" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K26" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L26" s="21"/>
-      <c r="M26" s="22"/>
+      <c r="J26" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="14"/>
+      <c r="M26" s="49"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="9">
+      <c r="B27" s="7">
         <v>23</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="15">
+      <c r="D27" s="11">
         <v>300</v>
       </c>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" s="57" t="s">
+      <c r="E27" s="11"/>
+      <c r="F27" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J27" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K27" s="15">
+      <c r="H27" s="11"/>
+      <c r="I27" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="11">
         <f t="shared" si="1"/>
         <v>-300</v>
       </c>
-      <c r="L27" s="15"/>
-      <c r="M27" s="16" t="s">
+      <c r="L27" s="11"/>
+      <c r="M27" s="50" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="28" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="12">
+      <c r="B28" s="9">
         <v>24</v>
       </c>
-      <c r="C28" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17">
+      <c r="C28" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12">
         <v>300</v>
       </c>
-      <c r="F28" s="17" t="s">
+      <c r="F28" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G28" s="40" t="s">
+      <c r="G28" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J28" s="17">
+      <c r="H28" s="12"/>
+      <c r="I28" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="12">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="K28" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L28" s="17"/>
-      <c r="M28" s="18"/>
+      <c r="K28" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="12"/>
+      <c r="M28" s="51"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B29" s="9">
+      <c r="B29" s="7">
         <v>25</v>
       </c>
-      <c r="C29" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" s="27">
+      <c r="C29" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="17">
         <v>300</v>
       </c>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29" s="61" t="s">
+      <c r="E29" s="17"/>
+      <c r="F29" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J29" s="27">
+      <c r="H29" s="17"/>
+      <c r="I29" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="17">
         <f t="shared" si="1"/>
         <v>-300</v>
       </c>
-      <c r="K29" s="27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L29" s="27"/>
-      <c r="M29" s="28" t="s">
+      <c r="K29" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="17"/>
+      <c r="M29" s="52" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="30" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="12">
+      <c r="B30" s="9">
         <v>26</v>
       </c>
-      <c r="C30" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29">
+      <c r="C30" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18">
         <v>300</v>
       </c>
-      <c r="F30" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="G30" s="43" t="s">
+      <c r="F30" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29">
+      <c r="H30" s="18"/>
+      <c r="I30" s="18">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="J30" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K30" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L30" s="29"/>
-      <c r="M30" s="30"/>
+      <c r="J30" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="18"/>
+      <c r="M30" s="53"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="I31">
@@ -2127,6 +2151,10 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="M11:M12"/>
     <mergeCell ref="M25:M26"/>
     <mergeCell ref="M27:M28"/>
     <mergeCell ref="M29:M30"/>
@@ -2138,10 +2166,6 @@
     <mergeCell ref="M17:M18"/>
     <mergeCell ref="M19:M20"/>
     <mergeCell ref="M21:M22"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="M11:M12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2159,87 +2183,87 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="7"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="5"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="48" t="s">
+      <c r="D4" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="48" t="s">
+      <c r="E4" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="48" t="s">
+      <c r="F4" s="34" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="49">
+      <c r="B5" s="35">
         <v>1</v>
       </c>
-      <c r="C5" s="49">
+      <c r="C5" s="35">
         <v>2</v>
       </c>
-      <c r="D5" s="49" t="s">
+      <c r="D5" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="49">
+      <c r="E5" s="35">
         <v>500</v>
       </c>
-      <c r="F5" s="49"/>
+      <c r="F5" s="35"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="49">
+      <c r="B6" s="35">
         <v>2</v>
       </c>
-      <c r="C6" s="49">
+      <c r="C6" s="35">
         <v>4</v>
       </c>
-      <c r="D6" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="49">
+      <c r="D6" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="35">
         <v>1000</v>
       </c>
-      <c r="F6" s="49"/>
+      <c r="F6" s="35"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="49">
+      <c r="B7" s="35">
         <v>3</v>
       </c>
-      <c r="C7" s="49">
+      <c r="C7" s="35">
         <v>14</v>
       </c>
-      <c r="D7" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49">
+      <c r="D7" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35">
         <v>1000</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="49">
+      <c r="B8" s="35">
         <v>4</v>
       </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49" t="s">
+      <c r="C8" s="35"/>
+      <c r="D8" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49">
+      <c r="E8" s="35"/>
+      <c r="F8" s="35">
         <v>500</v>
       </c>
       <c r="G8" t="s">
@@ -2247,30 +2271,30 @@
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="49">
+      <c r="B9" s="35">
         <v>5</v>
       </c>
-      <c r="C9" s="49">
+      <c r="C9" s="35">
         <v>19</v>
       </c>
-      <c r="D9" s="49" t="s">
+      <c r="D9" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="49">
+      <c r="E9" s="35">
         <v>500</v>
       </c>
-      <c r="F9" s="49"/>
+      <c r="F9" s="35"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="49">
+      <c r="B10" s="35">
         <v>6</v>
       </c>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49" t="s">
+      <c r="C10" s="35"/>
+      <c r="D10" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49">
+      <c r="E10" s="35"/>
+      <c r="F10" s="35">
         <v>500</v>
       </c>
       <c r="G10" t="s">
@@ -2278,63 +2302,63 @@
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="49">
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="35">
         <f>SUM(E5:E17)</f>
         <v>2000</v>
       </c>
-      <c r="F18" s="49">
+      <c r="F18" s="35">
         <f>SUM(F5:F17)</f>
         <v>2000</v>
       </c>
@@ -2362,40 +2386,40 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="6"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="4"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="49" t="s">
+      <c r="D4" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="49" t="s">
+      <c r="E4" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="49" t="s">
+      <c r="F4" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="49" t="s">
+      <c r="G4" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="49" t="s">
+      <c r="H4" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="52"/>
+      <c r="I4" s="38"/>
       <c r="K4" t="s">
         <v>22</v>
       </c>
@@ -2404,24 +2428,24 @@
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="49">
+      <c r="B5" s="35">
         <v>1</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49">
-        <v>16</v>
-      </c>
-      <c r="E5" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="49">
+      <c r="C5" s="35"/>
+      <c r="D5" s="35">
+        <v>16</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="35">
         <v>500</v>
       </c>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49" t="s">
+      <c r="G5" s="35"/>
+      <c r="H5" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="52" t="s">
+      <c r="I5" s="38" t="s">
         <v>40</v>
       </c>
       <c r="K5">
@@ -2434,24 +2458,24 @@
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="49">
+      <c r="B6" s="35">
         <v>2</v>
       </c>
-      <c r="C6" s="49">
+      <c r="C6" s="35">
         <v>4</v>
       </c>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49" t="s">
+      <c r="D6" s="35"/>
+      <c r="E6" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49">
+      <c r="F6" s="35"/>
+      <c r="G6" s="35">
         <v>500</v>
       </c>
-      <c r="H6" s="49" t="s">
+      <c r="H6" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="52" t="s">
+      <c r="I6" s="38" t="s">
         <v>39</v>
       </c>
       <c r="K6">
@@ -2464,24 +2488,24 @@
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="49">
+      <c r="B7" s="35">
         <v>3</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49">
+      <c r="C7" s="35"/>
+      <c r="D7" s="35">
         <v>18</v>
       </c>
-      <c r="E7" s="49" t="s">
+      <c r="E7" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="49">
+      <c r="F7" s="35">
         <v>1100</v>
       </c>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49" t="s">
+      <c r="G7" s="35"/>
+      <c r="H7" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="52" t="s">
+      <c r="I7" s="38" t="s">
         <v>40</v>
       </c>
       <c r="K7">
@@ -2494,24 +2518,24 @@
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="49">
+      <c r="B8" s="35">
         <v>4</v>
       </c>
-      <c r="C8" s="49">
+      <c r="C8" s="35">
         <v>6</v>
       </c>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49" t="s">
+      <c r="D8" s="35"/>
+      <c r="E8" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49">
+      <c r="F8" s="35"/>
+      <c r="G8" s="35">
         <v>500</v>
       </c>
-      <c r="H8" s="49" t="s">
+      <c r="H8" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="53" t="s">
+      <c r="I8" s="39" t="s">
         <v>39</v>
       </c>
       <c r="K8">
@@ -2524,24 +2548,24 @@
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="49">
+      <c r="B9" s="35">
         <v>5</v>
       </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49">
+      <c r="C9" s="35"/>
+      <c r="D9" s="35">
         <v>26</v>
       </c>
-      <c r="E9" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="49">
+      <c r="E9" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="35">
         <v>300</v>
       </c>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49" t="s">
+      <c r="G9" s="35"/>
+      <c r="H9" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="53" t="s">
+      <c r="I9" s="39" t="s">
         <v>40</v>
       </c>
       <c r="K9">
@@ -2554,16 +2578,16 @@
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="49">
+      <c r="B10" s="35">
         <v>6</v>
       </c>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="52"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="38"/>
       <c r="K10">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2574,16 +2598,16 @@
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="49">
+      <c r="B11" s="35">
         <v>7</v>
       </c>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="52"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="38"/>
       <c r="K11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2594,16 +2618,16 @@
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="49">
+      <c r="B12" s="35">
         <v>8</v>
       </c>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="52"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="38"/>
       <c r="K12">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2614,16 +2638,16 @@
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="49">
+      <c r="B13" s="35">
         <v>9</v>
       </c>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="52"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="38"/>
       <c r="K13">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2634,16 +2658,16 @@
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="49">
-        <v>10</v>
-      </c>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="52"/>
+      <c r="B14" s="35">
+        <v>10</v>
+      </c>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="38"/>
       <c r="K14">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2654,16 +2678,16 @@
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="49">
+      <c r="B15" s="35">
         <v>11</v>
       </c>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="52"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="38"/>
       <c r="K15">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2674,16 +2698,16 @@
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="49">
+      <c r="B16" s="35">
         <v>12</v>
       </c>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="52"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="38"/>
       <c r="K16">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2694,20 +2718,20 @@
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="49">
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="35">
         <f>SUM(F5:F16)</f>
         <v>1900</v>
       </c>
-      <c r="G17" s="49">
+      <c r="G17" s="35">
         <f>SUM(G5:G16)</f>
         <v>1000</v>
       </c>
-      <c r="H17" s="8"/>
-      <c r="I17" s="52"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="38"/>
       <c r="K17">
         <f>SUM(K5:K16)</f>
         <v>-1100</v>
@@ -2747,35 +2771,35 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
     </row>
     <row r="4" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="4" t="s">
         <v>28</v>
       </c>
       <c r="H4" t="s">
@@ -2789,442 +2813,442 @@
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="35">
+      <c r="B5" s="23">
         <v>1</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="36">
+      <c r="D5" s="24">
         <v>500</v>
       </c>
-      <c r="E5" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="38" t="s">
+      <c r="E5" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36">
+      <c r="G5" s="24"/>
+      <c r="H5" s="24">
         <f>IF($C5=H$4, $D5,IF($E5=H$4,$D5*-1,0))</f>
         <v>-500</v>
       </c>
-      <c r="I5" s="36">
+      <c r="I5" s="24">
         <f t="shared" ref="I5:J17" si="0">IF($C5=I$4, $D5,IF($E5=I$4,$D5*-1,0))</f>
         <v>0</v>
       </c>
-      <c r="J5" s="36">
+      <c r="J5" s="24">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="K5" s="36"/>
-      <c r="L5" s="37" t="s">
+      <c r="K5" s="24"/>
+      <c r="L5" s="25" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="35">
+      <c r="B6" s="23">
         <v>2</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="13">
+      <c r="C6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="10">
         <v>1000</v>
       </c>
-      <c r="E6" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="39" t="s">
+      <c r="E6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13">
-        <f t="shared" ref="H6:J17" si="1">IF($C6=H$4, $D6,IF($E6=H$4,$D6*-1,0))</f>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10">
+        <f t="shared" ref="H6:H17" si="1">IF($C6=H$4, $D6,IF($E6=H$4,$D6*-1,0))</f>
         <v>-1000</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I6" s="10">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="J6" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K6" s="13"/>
-      <c r="L6" s="37" t="s">
+      <c r="J6" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="10"/>
+      <c r="L6" s="25" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="35">
+      <c r="B7" s="23">
         <v>3</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="12">
         <v>600</v>
       </c>
-      <c r="E7" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="40" t="s">
+      <c r="E7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="17">
+      <c r="G7" s="12"/>
+      <c r="H7" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="12">
         <f t="shared" si="0"/>
         <v>-600</v>
       </c>
-      <c r="J7" s="17">
+      <c r="J7" s="12">
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="K7" s="17"/>
-      <c r="L7" s="31" t="s">
+      <c r="K7" s="12"/>
+      <c r="L7" s="19" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="35">
+      <c r="B8" s="23">
         <v>4</v>
       </c>
-      <c r="C8" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="21">
+      <c r="C8" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="14">
         <v>200</v>
       </c>
-      <c r="E8" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="41" t="s">
+      <c r="E8" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21">
+      <c r="G8" s="14"/>
+      <c r="H8" s="14">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="I8" s="21">
+      <c r="I8" s="14">
         <f t="shared" si="0"/>
         <v>-200</v>
       </c>
-      <c r="J8" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="21"/>
-      <c r="L8" s="32" t="s">
+      <c r="J8" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="14"/>
+      <c r="L8" s="20" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="35">
+      <c r="B9" s="23">
         <v>5</v>
       </c>
-      <c r="C9" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="21">
+      <c r="C9" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="14">
         <v>200</v>
       </c>
-      <c r="E9" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="41" t="s">
+      <c r="E9" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21">
+      <c r="G9" s="14"/>
+      <c r="H9" s="14">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="I9" s="21">
+      <c r="I9" s="14">
         <f t="shared" si="0"/>
         <v>-200</v>
       </c>
-      <c r="J9" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="21"/>
-      <c r="L9" s="32" t="s">
+      <c r="J9" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="14"/>
+      <c r="L9" s="20" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="35">
+      <c r="B10" s="23">
         <v>6</v>
       </c>
-      <c r="C10" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="25">
+      <c r="C10" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="16">
         <v>1500</v>
       </c>
-      <c r="E10" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="42" t="s">
+      <c r="E10" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25">
+      <c r="G10" s="16"/>
+      <c r="H10" s="16">
         <f t="shared" si="1"/>
         <v>-1500</v>
       </c>
-      <c r="I10" s="25">
+      <c r="I10" s="16">
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="J10" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="25"/>
-      <c r="L10" s="33"/>
+      <c r="J10" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="16"/>
+      <c r="L10" s="21"/>
     </row>
     <row r="11" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="35">
+      <c r="B11" s="23">
         <v>7</v>
       </c>
-      <c r="C11" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="46">
+      <c r="C11" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="33">
         <v>1000</v>
       </c>
-      <c r="E11" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="54" t="s">
+      <c r="E11" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46">
+      <c r="G11" s="33"/>
+      <c r="H11" s="33">
         <f t="shared" si="1"/>
         <v>1000</v>
       </c>
-      <c r="I11" s="46">
+      <c r="I11" s="33">
         <f t="shared" si="0"/>
         <v>-1000</v>
       </c>
-      <c r="J11" s="46">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="46"/>
-      <c r="L11" s="55" t="s">
+      <c r="J11" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="33"/>
+      <c r="L11" s="41" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="12" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="35">
+      <c r="B12" s="23">
         <v>8</v>
       </c>
-      <c r="C12" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="29">
+      <c r="C12" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="18">
         <v>500</v>
       </c>
-      <c r="E12" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="43" t="s">
+      <c r="E12" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29">
+      <c r="G12" s="18"/>
+      <c r="H12" s="18">
         <f t="shared" si="1"/>
         <v>500</v>
       </c>
-      <c r="I12" s="29">
+      <c r="I12" s="18">
         <f t="shared" si="0"/>
         <v>-500</v>
       </c>
-      <c r="J12" s="29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="29"/>
-      <c r="L12" s="34" t="s">
+      <c r="J12" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="18"/>
+      <c r="L12" s="22" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="13" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="35">
+      <c r="B13" s="23">
         <v>9</v>
       </c>
-      <c r="C13" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="29">
+      <c r="C13" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="18">
         <v>1100</v>
       </c>
-      <c r="E13" s="29" t="s">
+      <c r="E13" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="43" t="s">
+      <c r="F13" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29">
+      <c r="G13" s="18"/>
+      <c r="H13" s="18">
         <f t="shared" si="1"/>
         <v>1100</v>
       </c>
-      <c r="I13" s="29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J13" s="29">
+      <c r="I13" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="18">
         <f t="shared" si="0"/>
         <v>-1100</v>
       </c>
-      <c r="K13" s="29"/>
-      <c r="L13" s="34" t="s">
+      <c r="K13" s="18"/>
+      <c r="L13" s="22" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="14" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="35">
-        <v>10</v>
-      </c>
-      <c r="C14" s="13" t="s">
+      <c r="B14" s="23">
+        <v>10</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="10">
         <v>500</v>
       </c>
-      <c r="E14" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="39" t="s">
+      <c r="E14" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13">
+      <c r="G14" s="10"/>
+      <c r="H14" s="10">
         <f t="shared" si="1"/>
         <v>-500</v>
       </c>
-      <c r="I14" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="13">
+      <c r="I14" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="10">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="K14" s="13"/>
-      <c r="L14" s="37" t="s">
+      <c r="K14" s="10"/>
+      <c r="L14" s="25" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="35">
+      <c r="B15" s="23">
         <v>11</v>
       </c>
-      <c r="C15" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="21">
+      <c r="C15" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="14">
         <v>200</v>
       </c>
-      <c r="E15" s="21" t="s">
+      <c r="E15" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="41" t="s">
+      <c r="F15" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21">
+      <c r="G15" s="14"/>
+      <c r="H15" s="14">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="I15" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="21">
+      <c r="I15" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="14">
         <f t="shared" si="0"/>
         <v>-200</v>
       </c>
-      <c r="K15" s="21"/>
-      <c r="L15" s="32" t="s">
+      <c r="K15" s="14"/>
+      <c r="L15" s="20" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="35">
+      <c r="B16" s="23">
         <v>12</v>
       </c>
-      <c r="C16" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="17">
+      <c r="C16" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="12">
         <v>300</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="E16" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F16" s="40" t="s">
+      <c r="F16" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="17">
+      <c r="G16" s="12"/>
+      <c r="H16" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="12">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="J16" s="17">
+      <c r="J16" s="12">
         <f t="shared" si="0"/>
         <v>-300</v>
       </c>
-      <c r="K16" s="17"/>
-      <c r="L16" s="31" t="s">
+      <c r="K16" s="12"/>
+      <c r="L16" s="19" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="17" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="35">
+      <c r="B17" s="23">
         <v>13</v>
       </c>
-      <c r="C17" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="29">
+      <c r="C17" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="18">
         <v>300</v>
       </c>
-      <c r="E17" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="43" t="s">
+      <c r="E17" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29">
+      <c r="G17" s="18"/>
+      <c r="H17" s="18">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="I17" s="29">
+      <c r="I17" s="18">
         <f t="shared" si="0"/>
         <v>-300</v>
       </c>
-      <c r="J17" s="29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K17" s="29"/>
-      <c r="L17" s="34" t="s">
+      <c r="J17" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="18"/>
+      <c r="L17" s="22" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3294,87 +3318,87 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="7"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="5"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="48" t="s">
+      <c r="D4" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="48" t="s">
+      <c r="E4" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="48" t="s">
+      <c r="F4" s="34" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="49">
+      <c r="B5" s="35">
         <v>1</v>
       </c>
-      <c r="C5" s="49">
+      <c r="C5" s="35">
         <v>1</v>
       </c>
-      <c r="D5" s="49" t="s">
+      <c r="D5" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="49">
+      <c r="E5" s="35">
         <v>500</v>
       </c>
-      <c r="F5" s="49"/>
+      <c r="F5" s="35"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="49">
+      <c r="B6" s="35">
         <v>2</v>
       </c>
-      <c r="C6" s="49">
+      <c r="C6" s="35">
         <v>2</v>
       </c>
-      <c r="D6" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="49">
+      <c r="D6" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="35">
         <v>1000</v>
       </c>
-      <c r="F6" s="49"/>
+      <c r="F6" s="35"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="49">
+      <c r="B7" s="35">
         <v>3</v>
       </c>
-      <c r="C7" s="49">
+      <c r="C7" s="35">
         <v>7</v>
       </c>
-      <c r="D7" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49">
+      <c r="D7" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35">
         <v>1000</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="49">
+      <c r="B8" s="35">
         <v>4</v>
       </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49" t="s">
+      <c r="C8" s="35"/>
+      <c r="D8" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49">
+      <c r="E8" s="35"/>
+      <c r="F8" s="35">
         <v>500</v>
       </c>
       <c r="G8" t="s">
@@ -3382,30 +3406,30 @@
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="49">
+      <c r="B9" s="35">
         <v>5</v>
       </c>
-      <c r="C9" s="49">
-        <v>10</v>
-      </c>
-      <c r="D9" s="49" t="s">
+      <c r="C9" s="35">
+        <v>10</v>
+      </c>
+      <c r="D9" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="49">
+      <c r="E9" s="35">
         <v>500</v>
       </c>
-      <c r="F9" s="49"/>
+      <c r="F9" s="35"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="49">
+      <c r="B10" s="35">
         <v>6</v>
       </c>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49" t="s">
+      <c r="C10" s="35"/>
+      <c r="D10" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49">
+      <c r="E10" s="35"/>
+      <c r="F10" s="35">
         <v>500</v>
       </c>
       <c r="G10" t="s">
@@ -3413,63 +3437,63 @@
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="49">
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="35">
         <f>SUM(E5:E17)</f>
         <v>2000</v>
       </c>
-      <c r="F18" s="49">
+      <c r="F18" s="35">
         <f>SUM(F5:F17)</f>
         <v>2000</v>
       </c>
@@ -3497,40 +3521,40 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="6"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="4"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="49" t="s">
+      <c r="D4" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="49" t="s">
+      <c r="E4" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="49" t="s">
+      <c r="F4" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="49" t="s">
+      <c r="G4" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="49" t="s">
+      <c r="H4" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="52"/>
+      <c r="I4" s="38"/>
       <c r="K4" t="s">
         <v>22</v>
       </c>
@@ -3539,24 +3563,24 @@
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="49">
+      <c r="B5" s="35">
         <v>1</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49">
+      <c r="C5" s="35"/>
+      <c r="D5" s="35">
         <v>8</v>
       </c>
-      <c r="E5" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="49">
+      <c r="E5" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="35">
         <v>500</v>
       </c>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49" t="s">
+      <c r="G5" s="35"/>
+      <c r="H5" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="52" t="s">
+      <c r="I5" s="38" t="s">
         <v>40</v>
       </c>
       <c r="K5">
@@ -3569,24 +3593,24 @@
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="49">
+      <c r="B6" s="35">
         <v>2</v>
       </c>
-      <c r="C6" s="49">
+      <c r="C6" s="35">
         <v>4</v>
       </c>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49" t="s">
+      <c r="D6" s="35"/>
+      <c r="E6" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49">
+      <c r="F6" s="35"/>
+      <c r="G6" s="35">
         <v>500</v>
       </c>
-      <c r="H6" s="49" t="s">
+      <c r="H6" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="52" t="s">
+      <c r="I6" s="38" t="s">
         <v>39</v>
       </c>
       <c r="K6">
@@ -3599,24 +3623,24 @@
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="49">
+      <c r="B7" s="35">
         <v>3</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49">
+      <c r="C7" s="35"/>
+      <c r="D7" s="35">
         <v>9</v>
       </c>
-      <c r="E7" s="49" t="s">
+      <c r="E7" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="49">
+      <c r="F7" s="35">
         <v>1100</v>
       </c>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49" t="s">
+      <c r="G7" s="35"/>
+      <c r="H7" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="52" t="s">
+      <c r="I7" s="38" t="s">
         <v>40</v>
       </c>
       <c r="K7">
@@ -3629,24 +3653,24 @@
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="49">
+      <c r="B8" s="35">
         <v>4</v>
       </c>
-      <c r="C8" s="49">
+      <c r="C8" s="35">
         <v>6</v>
       </c>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49" t="s">
+      <c r="D8" s="35"/>
+      <c r="E8" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49">
+      <c r="F8" s="35"/>
+      <c r="G8" s="35">
         <v>500</v>
       </c>
-      <c r="H8" s="49" t="s">
+      <c r="H8" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="53" t="s">
+      <c r="I8" s="39" t="s">
         <v>39</v>
       </c>
       <c r="K8">
@@ -3659,24 +3683,24 @@
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="49">
+      <c r="B9" s="35">
         <v>5</v>
       </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49">
+      <c r="C9" s="35"/>
+      <c r="D9" s="35">
         <v>13</v>
       </c>
-      <c r="E9" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="49">
+      <c r="E9" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="35">
         <v>300</v>
       </c>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49" t="s">
+      <c r="G9" s="35"/>
+      <c r="H9" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="53" t="s">
+      <c r="I9" s="39" t="s">
         <v>40</v>
       </c>
       <c r="K9">
@@ -3689,16 +3713,16 @@
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="49">
+      <c r="B10" s="35">
         <v>6</v>
       </c>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="52"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="38"/>
       <c r="K10">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3709,16 +3733,16 @@
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="49">
+      <c r="B11" s="35">
         <v>7</v>
       </c>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="52"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="38"/>
       <c r="K11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3729,16 +3753,16 @@
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="49">
+      <c r="B12" s="35">
         <v>8</v>
       </c>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="52"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="38"/>
       <c r="K12">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3749,16 +3773,16 @@
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="49">
+      <c r="B13" s="35">
         <v>9</v>
       </c>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="52"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="38"/>
       <c r="K13">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3769,16 +3793,16 @@
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="49">
-        <v>10</v>
-      </c>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="52"/>
+      <c r="B14" s="35">
+        <v>10</v>
+      </c>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="38"/>
       <c r="K14">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3789,16 +3813,16 @@
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="49">
+      <c r="B15" s="35">
         <v>11</v>
       </c>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="52"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="38"/>
       <c r="K15">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3809,16 +3833,16 @@
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="49">
+      <c r="B16" s="35">
         <v>12</v>
       </c>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="52"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="38"/>
       <c r="K16">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3829,20 +3853,20 @@
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="49">
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="35">
         <f>SUM(F5:F16)</f>
         <v>1900</v>
       </c>
-      <c r="G17" s="49">
+      <c r="G17" s="35">
         <f>SUM(G5:G16)</f>
         <v>1000</v>
       </c>
-      <c r="H17" s="8"/>
-      <c r="I17" s="52"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="38"/>
       <c r="K17">
         <f>SUM(K5:K16)</f>
         <v>-1100</v>
@@ -3868,49 +3892,52 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:P37"/>
+  <dimension ref="B3:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H11" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.7109375" customWidth="1"/>
-    <col min="2" max="11" width="11.5703125" customWidth="1"/>
+    <col min="2" max="5" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="7" max="11" width="11.5703125" customWidth="1"/>
     <col min="12" max="12" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
     </row>
     <row r="4" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="4" t="s">
         <v>28</v>
       </c>
       <c r="H4" t="s">
@@ -3924,448 +3951,448 @@
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="35">
+      <c r="B5" s="23">
         <v>1</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="36">
+      <c r="D5" s="24">
         <v>500</v>
       </c>
-      <c r="E5" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="38" t="s">
+      <c r="E5" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36">
+      <c r="G5" s="24"/>
+      <c r="H5" s="24">
         <f>IF($C5=H$4, $D5,IF($E5=H$4,$D5*-1,0))</f>
         <v>-500</v>
       </c>
-      <c r="I5" s="36">
+      <c r="I5" s="24">
         <f t="shared" ref="I5:J17" si="0">IF($C5=I$4, $D5,IF($E5=I$4,$D5*-1,0))</f>
         <v>0</v>
       </c>
-      <c r="J5" s="36">
+      <c r="J5" s="24">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="K5" s="36"/>
-      <c r="L5" s="37" t="s">
+      <c r="K5" s="24"/>
+      <c r="L5" s="25" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="35">
+      <c r="B6" s="23">
         <v>2</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="13">
+      <c r="C6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="10">
         <v>1000</v>
       </c>
-      <c r="E6" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="39" t="s">
+      <c r="E6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13">
-        <f t="shared" ref="H6:J17" si="1">IF($C6=H$4, $D6,IF($E6=H$4,$D6*-1,0))</f>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10">
+        <f t="shared" ref="H6:H17" si="1">IF($C6=H$4, $D6,IF($E6=H$4,$D6*-1,0))</f>
         <v>-1000</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I6" s="10">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="J6" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K6" s="13"/>
-      <c r="L6" s="37" t="s">
+      <c r="J6" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="10"/>
+      <c r="L6" s="25" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="35">
+      <c r="B7" s="23">
         <v>3</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="12">
         <v>600</v>
       </c>
-      <c r="E7" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="40" t="s">
+      <c r="E7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="17">
+      <c r="G7" s="12"/>
+      <c r="H7" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="12">
         <f t="shared" si="0"/>
         <v>-600</v>
       </c>
-      <c r="J7" s="17">
+      <c r="J7" s="12">
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="K7" s="17"/>
-      <c r="L7" s="31" t="s">
+      <c r="K7" s="12"/>
+      <c r="L7" s="19" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="35">
+      <c r="B8" s="23">
         <v>4</v>
       </c>
-      <c r="C8" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="21">
+      <c r="C8" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="14">
         <v>200</v>
       </c>
-      <c r="E8" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="41" t="s">
+      <c r="E8" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21">
+      <c r="G8" s="14"/>
+      <c r="H8" s="14">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="I8" s="21">
+      <c r="I8" s="14">
         <f t="shared" si="0"/>
         <v>-200</v>
       </c>
-      <c r="J8" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="21"/>
-      <c r="L8" s="32" t="s">
+      <c r="J8" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="14"/>
+      <c r="L8" s="20" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="35">
+      <c r="B9" s="23">
         <v>5</v>
       </c>
-      <c r="C9" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="21">
+      <c r="C9" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="14">
         <v>200</v>
       </c>
-      <c r="E9" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="41" t="s">
+      <c r="E9" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21">
+      <c r="G9" s="14"/>
+      <c r="H9" s="14">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="I9" s="21">
+      <c r="I9" s="14">
         <f t="shared" si="0"/>
         <v>-200</v>
       </c>
-      <c r="J9" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="21"/>
-      <c r="L9" s="32" t="s">
+      <c r="J9" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="14"/>
+      <c r="L9" s="20" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="35">
+      <c r="B10" s="23">
         <v>6</v>
       </c>
-      <c r="C10" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="25">
+      <c r="C10" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="16">
         <v>1500</v>
       </c>
-      <c r="E10" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="42" t="s">
+      <c r="E10" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25">
+      <c r="G10" s="16"/>
+      <c r="H10" s="16">
         <f t="shared" si="1"/>
         <v>-1500</v>
       </c>
-      <c r="I10" s="25">
+      <c r="I10" s="16">
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="J10" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="25"/>
-      <c r="L10" s="33" t="s">
+      <c r="J10" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="16"/>
+      <c r="L10" s="21" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="11" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="35">
+      <c r="B11" s="23">
         <v>7</v>
       </c>
-      <c r="C11" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="46">
+      <c r="C11" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="33">
         <v>1000</v>
       </c>
-      <c r="E11" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="54" t="s">
+      <c r="E11" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46">
+      <c r="G11" s="33"/>
+      <c r="H11" s="33">
         <f t="shared" si="1"/>
         <v>1000</v>
       </c>
-      <c r="I11" s="46">
+      <c r="I11" s="33">
         <f t="shared" si="0"/>
         <v>-1000</v>
       </c>
-      <c r="J11" s="46">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="46"/>
-      <c r="L11" s="55" t="s">
+      <c r="J11" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="33"/>
+      <c r="L11" s="41" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="12" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="35">
+      <c r="B12" s="23">
         <v>8</v>
       </c>
-      <c r="C12" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="29">
+      <c r="C12" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="18">
         <v>500</v>
       </c>
-      <c r="E12" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="43" t="s">
+      <c r="E12" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29">
+      <c r="G12" s="18"/>
+      <c r="H12" s="18">
         <f t="shared" si="1"/>
         <v>500</v>
       </c>
-      <c r="I12" s="29">
+      <c r="I12" s="18">
         <f t="shared" si="0"/>
         <v>-500</v>
       </c>
-      <c r="J12" s="29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="29"/>
-      <c r="L12" s="34" t="s">
+      <c r="J12" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="18"/>
+      <c r="L12" s="22" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="13" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="35">
+      <c r="B13" s="23">
         <v>9</v>
       </c>
-      <c r="C13" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="29">
+      <c r="C13" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="18">
         <v>1100</v>
       </c>
-      <c r="E13" s="29" t="s">
+      <c r="E13" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="43" t="s">
+      <c r="F13" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29">
+      <c r="G13" s="18"/>
+      <c r="H13" s="18">
         <f t="shared" si="1"/>
         <v>1100</v>
       </c>
-      <c r="I13" s="29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J13" s="29">
+      <c r="I13" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="18">
         <f t="shared" si="0"/>
         <v>-1100</v>
       </c>
-      <c r="K13" s="29"/>
-      <c r="L13" s="34" t="s">
+      <c r="K13" s="18"/>
+      <c r="L13" s="22" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="14" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="35">
-        <v>10</v>
-      </c>
-      <c r="C14" s="13" t="s">
+      <c r="B14" s="23">
+        <v>10</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="10">
         <v>500</v>
       </c>
-      <c r="E14" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="39" t="s">
+      <c r="E14" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13">
+      <c r="G14" s="10"/>
+      <c r="H14" s="10">
         <f t="shared" si="1"/>
         <v>-500</v>
       </c>
-      <c r="I14" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="13">
+      <c r="I14" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="10">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="K14" s="13"/>
-      <c r="L14" s="37" t="s">
+      <c r="K14" s="10"/>
+      <c r="L14" s="25" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="35">
+      <c r="B15" s="23">
         <v>11</v>
       </c>
-      <c r="C15" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="21">
+      <c r="C15" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="14">
         <v>200</v>
       </c>
-      <c r="E15" s="21" t="s">
+      <c r="E15" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="41" t="s">
+      <c r="F15" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21">
+      <c r="G15" s="14"/>
+      <c r="H15" s="14">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="I15" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="21">
+      <c r="I15" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="14">
         <f t="shared" si="0"/>
         <v>-200</v>
       </c>
-      <c r="K15" s="21"/>
-      <c r="L15" s="32" t="s">
+      <c r="K15" s="14"/>
+      <c r="L15" s="20" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="35">
+      <c r="B16" s="23">
         <v>12</v>
       </c>
-      <c r="C16" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="17">
+      <c r="C16" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="12">
         <v>300</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="E16" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F16" s="40" t="s">
+      <c r="F16" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="17">
+      <c r="G16" s="12"/>
+      <c r="H16" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="12">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="J16" s="17">
+      <c r="J16" s="12">
         <f t="shared" si="0"/>
         <v>-300</v>
       </c>
-      <c r="K16" s="17"/>
-      <c r="L16" s="31" t="s">
+      <c r="K16" s="12"/>
+      <c r="L16" s="19" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="35">
+    <row r="17" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="23">
         <v>13</v>
       </c>
-      <c r="C17" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="29">
+      <c r="C17" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="18">
         <v>300</v>
       </c>
-      <c r="E17" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="43" t="s">
+      <c r="E17" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29">
+      <c r="G17" s="18"/>
+      <c r="H17" s="18">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="I17" s="29">
+      <c r="I17" s="18">
         <f t="shared" si="0"/>
         <v>-300</v>
       </c>
-      <c r="J17" s="29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K17" s="29"/>
-      <c r="L17" s="34" t="s">
+      <c r="J17" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="18"/>
+      <c r="L17" s="22" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H18">
         <f>IF($C18=H$4, IF(#REF!&gt;0,#REF!*-1,$D18),0)</f>
         <v>0</v>
@@ -4379,7 +4406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H19">
         <f>IF($C19=H$4, IF(#REF!&gt;0,#REF!*-1,$D19),0)</f>
         <v>0</v>
@@ -4393,7 +4420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D20">
         <f>SUM(D5:D19)</f>
         <v>7900</v>
@@ -4411,69 +4438,180 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M25" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M26" s="37" t="s">
+    <row r="26" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26" s="25" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M27" s="37" t="s">
+      <c r="G26" t="s">
+        <v>44</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="M26" s="25" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M28" s="31" t="s">
+      <c r="N26" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="O26" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M29" s="32" t="s">
+    <row r="27" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" t="s">
+        <v>49</v>
+      </c>
+      <c r="H27" t="s">
+        <v>48</v>
+      </c>
+      <c r="M27" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="N27" s="62" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28" s="20" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="30" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M30" s="32" t="s">
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="M28" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="N28" s="62" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E29">
+        <v>4</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G29" t="s">
+        <v>44</v>
+      </c>
+      <c r="M29" s="20" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M31" s="33" t="s">
+      <c r="N29" s="62" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E30">
+        <v>5</v>
+      </c>
+      <c r="F30" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="M30" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="N30" s="62" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E31">
+        <v>6</v>
+      </c>
+      <c r="F31" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="M31" s="21" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M32" s="55" t="s">
+      <c r="N31" s="62" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E32">
+        <v>7</v>
+      </c>
+      <c r="F32" t="s">
+        <v>43</v>
+      </c>
+      <c r="G32" t="s">
+        <v>44</v>
+      </c>
+      <c r="M32" s="41" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="33" spans="13:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M33" s="34" t="s">
+      <c r="N32" s="62" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="13:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M33" s="22" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="34" spans="13:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M34" s="34" t="s">
+      <c r="N33" s="62" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="13:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M34" s="22" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="35" spans="13:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M35" s="37" t="s">
+      <c r="N34" s="62" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="13:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M35" s="25" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="36" spans="13:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M36" s="32" t="s">
+      <c r="N35" s="62" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="13:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M36" s="20" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="37" spans="13:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M37" s="31" t="s">
+      <c r="N36" s="62" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="13:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M37" s="19" t="s">
         <v>31</v>
+      </c>
+      <c r="N37" s="62"/>
+    </row>
+    <row r="38" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M38" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -4483,5 +4621,6 @@
     <mergeCell ref="M3:P3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/Billetera.xlsx
+++ b/docs/Billetera.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="20115" windowHeight="8505" firstSheet="6" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="20115" windowHeight="8505" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="Prestamo 2" sheetId="6" r:id="rId6"/>
     <sheet name="Pago Efectivo 2" sheetId="7" r:id="rId7"/>
     <sheet name="Hoja4" sheetId="8" r:id="rId8"/>
+    <sheet name="Pago Efectivo Oficial" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Hoja4!$M$25:$M$30</definedName>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="60">
   <si>
     <t>Ruddy</t>
   </si>
@@ -174,6 +175,36 @@
   </si>
   <si>
     <t xml:space="preserve"> + -</t>
+  </si>
+  <si>
+    <t>monto</t>
+  </si>
+  <si>
+    <t>recibe</t>
+  </si>
+  <si>
+    <t>da</t>
+  </si>
+  <si>
+    <t>relaciondor</t>
+  </si>
+  <si>
+    <t>Traspaso</t>
+  </si>
+  <si>
+    <t>traspaso</t>
+  </si>
+  <si>
+    <t>jose</t>
+  </si>
+  <si>
+    <t>adndrea</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
 </sst>
 </file>
@@ -197,7 +228,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -246,8 +277,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -400,11 +437,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -495,6 +552,21 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -522,24 +594,24 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1170,24 +1242,24 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="61"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50"/>
     </row>
     <row r="4" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="4" t="s">
@@ -1246,7 +1318,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="8"/>
-      <c r="M5" s="57" t="s">
+      <c r="M5" s="51" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1281,7 +1353,7 @@
         <v>500</v>
       </c>
       <c r="L6" s="10"/>
-      <c r="M6" s="58"/>
+      <c r="M6" s="52"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" s="7">
@@ -1314,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="8"/>
-      <c r="M7" s="57" t="s">
+      <c r="M7" s="51" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1349,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="10"/>
-      <c r="M8" s="58"/>
+      <c r="M8" s="52"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9" s="7">
@@ -1382,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="11"/>
-      <c r="M9" s="50" t="s">
+      <c r="M9" s="55" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1417,7 +1489,7 @@
         <v>600</v>
       </c>
       <c r="L10" s="12"/>
-      <c r="M10" s="51"/>
+      <c r="M10" s="56"/>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B11" s="7">
@@ -1450,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="13"/>
-      <c r="M11" s="48" t="s">
+      <c r="M11" s="53" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1485,7 +1557,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="14"/>
-      <c r="M12" s="49"/>
+      <c r="M12" s="54"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B13" s="7">
@@ -1518,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="13"/>
-      <c r="M13" s="48" t="s">
+      <c r="M13" s="53" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1553,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="14"/>
-      <c r="M14" s="49"/>
+      <c r="M14" s="54"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B15" s="7">
@@ -1586,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="15"/>
-      <c r="M15" s="55" t="s">
+      <c r="M15" s="60" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1621,7 +1693,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="16"/>
-      <c r="M16" s="56"/>
+      <c r="M16" s="61"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="7">
@@ -1654,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="32"/>
-      <c r="M17" s="59" t="s">
+      <c r="M17" s="62" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1689,7 +1761,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="33"/>
-      <c r="M18" s="60"/>
+      <c r="M18" s="63"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="7">
@@ -1722,7 +1794,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="17"/>
-      <c r="M19" s="52" t="s">
+      <c r="M19" s="57" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1757,7 +1829,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="18"/>
-      <c r="M20" s="53"/>
+      <c r="M20" s="58"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="7">
@@ -1790,7 +1862,7 @@
         <v>-1100</v>
       </c>
       <c r="L21" s="17"/>
-      <c r="M21" s="52" t="s">
+      <c r="M21" s="57" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1825,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="18"/>
-      <c r="M22" s="53"/>
+      <c r="M22" s="58"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="7">
@@ -1858,7 +1930,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="8"/>
-      <c r="M23" s="57" t="s">
+      <c r="M23" s="51" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1893,7 +1965,7 @@
         <v>500</v>
       </c>
       <c r="L24" s="10"/>
-      <c r="M24" s="58"/>
+      <c r="M24" s="52"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="7">
@@ -1926,7 +1998,7 @@
         <v>-200</v>
       </c>
       <c r="L25" s="13"/>
-      <c r="M25" s="48" t="s">
+      <c r="M25" s="53" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1961,7 +2033,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="14"/>
-      <c r="M26" s="49"/>
+      <c r="M26" s="54"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="7">
@@ -1994,7 +2066,7 @@
         <v>-300</v>
       </c>
       <c r="L27" s="11"/>
-      <c r="M27" s="50" t="s">
+      <c r="M27" s="55" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2029,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="12"/>
-      <c r="M28" s="51"/>
+      <c r="M28" s="56"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="7">
@@ -2062,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="17"/>
-      <c r="M29" s="52" t="s">
+      <c r="M29" s="57" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2097,7 +2169,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="18"/>
-      <c r="M30" s="53"/>
+      <c r="M30" s="58"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="I31">
@@ -2151,11 +2223,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="M25:M26"/>
     <mergeCell ref="M27:M28"/>
     <mergeCell ref="M29:M30"/>
     <mergeCell ref="B3:M3"/>
@@ -2166,6 +2233,11 @@
     <mergeCell ref="M17:M18"/>
     <mergeCell ref="M19:M20"/>
     <mergeCell ref="M21:M22"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="M25:M26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2183,13 +2255,13 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
@@ -2386,15 +2458,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
       <c r="I3" s="4"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
@@ -2760,7 +2832,7 @@
   <dimension ref="B3:P20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2771,23 +2843,23 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
     </row>
     <row r="4" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="4" t="s">
@@ -3312,19 +3384,19 @@
   <dimension ref="B3:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
@@ -3511,7 +3583,7 @@
   <dimension ref="B3:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="I12" activeCellId="5" sqref="I5 I7 I9 I6 I8 I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3521,16 +3593,22 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
       <c r="I3" s="4"/>
+      <c r="K3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="35" t="s">
@@ -3554,7 +3632,9 @@
       <c r="H4" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="38"/>
+      <c r="I4" s="64" t="s">
+        <v>28</v>
+      </c>
       <c r="K4" t="s">
         <v>22</v>
       </c>
@@ -3718,14 +3798,22 @@
       </c>
       <c r="C10" s="35"/>
       <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
+      <c r="E10" s="35" t="s">
+        <v>27</v>
+      </c>
       <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="38"/>
+      <c r="G10" s="35">
+        <v>200</v>
+      </c>
+      <c r="H10" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="39" t="s">
+        <v>55</v>
+      </c>
       <c r="K10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L10">
         <f t="shared" si="0"/>
@@ -3738,18 +3826,26 @@
       </c>
       <c r="C11" s="35"/>
       <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
+      <c r="E11" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="35">
+        <v>200</v>
+      </c>
       <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="38"/>
+      <c r="H11" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="39" t="s">
+        <v>55</v>
+      </c>
       <c r="K11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-200</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
@@ -3757,15 +3853,25 @@
         <v>8</v>
       </c>
       <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
+      <c r="D12" s="35">
+        <v>34</v>
+      </c>
+      <c r="E12" s="35" t="s">
+        <v>15</v>
+      </c>
       <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="38"/>
+      <c r="G12" s="35">
+        <v>2000</v>
+      </c>
+      <c r="H12" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="39" t="s">
+        <v>43</v>
+      </c>
       <c r="K12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="L12">
         <f t="shared" si="0"/>
@@ -3859,27 +3965,27 @@
       <c r="E17" s="37"/>
       <c r="F17" s="35">
         <f>SUM(F5:F16)</f>
-        <v>1900</v>
+        <v>2100</v>
       </c>
       <c r="G17" s="35">
         <f>SUM(G5:G16)</f>
-        <v>1000</v>
+        <v>3200</v>
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="38"/>
       <c r="K17">
         <f>SUM(K5:K16)</f>
-        <v>-1100</v>
+        <v>1100</v>
       </c>
       <c r="L17">
         <f>SUM(L5:L16)</f>
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G18">
         <f>G17-F17</f>
-        <v>-900</v>
+        <v>1100</v>
       </c>
     </row>
   </sheetData>
@@ -3894,8 +4000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3909,23 +4015,23 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
     </row>
     <row r="4" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="4" t="s">
@@ -4459,7 +4565,7 @@
       <c r="M26" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="N26" s="62" t="s">
+      <c r="N26" s="49" t="s">
         <v>44</v>
       </c>
       <c r="O26" t="s">
@@ -4482,7 +4588,7 @@
       <c r="M27" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="N27" s="62" t="s">
+      <c r="N27" s="49" t="s">
         <v>44</v>
       </c>
     </row>
@@ -4499,7 +4605,7 @@
       <c r="M28" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="N28" s="62" t="s">
+      <c r="N28" s="49" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4516,7 +4622,7 @@
       <c r="M29" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="N29" s="62" t="s">
+      <c r="N29" s="49" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4533,7 +4639,7 @@
       <c r="M30" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="N30" s="62" t="s">
+      <c r="N30" s="49" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4550,7 +4656,7 @@
       <c r="M31" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="N31" s="62" t="s">
+      <c r="N31" s="49" t="s">
         <v>44</v>
       </c>
     </row>
@@ -4567,7 +4673,7 @@
       <c r="M32" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="N32" s="62" t="s">
+      <c r="N32" s="49" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4575,7 +4681,7 @@
       <c r="M33" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="N33" s="62" t="s">
+      <c r="N33" s="49" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4583,7 +4689,7 @@
       <c r="M34" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="N34" s="62" t="s">
+      <c r="N34" s="49" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4591,7 +4697,7 @@
       <c r="M35" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="N35" s="62" t="s">
+      <c r="N35" s="49" t="s">
         <v>44</v>
       </c>
     </row>
@@ -4599,7 +4705,7 @@
       <c r="M36" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="N36" s="62" t="s">
+      <c r="N36" s="49" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4607,7 +4713,7 @@
       <c r="M37" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="N37" s="62"/>
+      <c r="N37" s="49"/>
     </row>
     <row r="38" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M38" t="s">
@@ -4623,4 +4729,617 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:R21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="7" max="9" width="12" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B3" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B4" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="69" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="70"/>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" t="s">
+        <v>56</v>
+      </c>
+      <c r="M4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B5" s="35">
+        <v>1</v>
+      </c>
+      <c r="C5" s="35"/>
+      <c r="D5" s="67">
+        <v>8</v>
+      </c>
+      <c r="E5" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="67">
+        <v>500</v>
+      </c>
+      <c r="G5" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="68" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="39">
+        <f t="shared" ref="J5:N15" si="0">IF(AND($E5=J$4, OR($I5="P", $I5="T", $I5="C")), $F5,IF(AND($G5=J$4,OR($I5="R", $I5="T")),$F5*-1,0))</f>
+        <v>-500</v>
+      </c>
+      <c r="K5" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L5" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M5" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N5" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <f>IF(I5="R",F5*-1,IF(I5="T",0,F5))</f>
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B6" s="35">
+        <v>2</v>
+      </c>
+      <c r="C6" s="35">
+        <v>4</v>
+      </c>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="65">
+        <v>500</v>
+      </c>
+      <c r="G6" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="66" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="66" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="39">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="L6" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N6" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <f t="shared" ref="R6:R15" si="1">IF(I6="R",F6*-1,IF(I6="T",0,F6))</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B7" s="35">
+        <v>3</v>
+      </c>
+      <c r="C7" s="35"/>
+      <c r="D7" s="67">
+        <v>9</v>
+      </c>
+      <c r="E7" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="67">
+        <v>1100</v>
+      </c>
+      <c r="G7" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="68" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="39">
+        <f t="shared" si="0"/>
+        <v>-1100</v>
+      </c>
+      <c r="K7" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N7" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="1"/>
+        <v>-1100</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B8" s="35">
+        <v>4</v>
+      </c>
+      <c r="C8" s="35">
+        <v>6</v>
+      </c>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="65">
+        <v>500</v>
+      </c>
+      <c r="G8" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="66" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="66" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="39">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="K8" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N8" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B9" s="35">
+        <v>5</v>
+      </c>
+      <c r="C9" s="35"/>
+      <c r="D9" s="67">
+        <v>13</v>
+      </c>
+      <c r="E9" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="67">
+        <v>300</v>
+      </c>
+      <c r="G9" s="67" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="68" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="39">
+        <f t="shared" si="0"/>
+        <v>-300</v>
+      </c>
+      <c r="L9" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="1"/>
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B10" s="35">
+        <v>6</v>
+      </c>
+      <c r="C10" s="35"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="65">
+        <v>200</v>
+      </c>
+      <c r="G10" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="66" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="39">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="K10" s="39">
+        <f t="shared" si="0"/>
+        <v>-200</v>
+      </c>
+      <c r="L10" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N10" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B11" s="35">
+        <v>8</v>
+      </c>
+      <c r="C11" s="35"/>
+      <c r="D11" s="65">
+        <v>34</v>
+      </c>
+      <c r="E11" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="65">
+        <v>2000</v>
+      </c>
+      <c r="G11" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="J11" s="39">
+        <f>IF(AND($E11=J$4, OR($I11="P", $I11="T", $I11="C")), $F11,IF(AND($G11=J$4,OR($I11="R", $I11="T")),$F11*-1,0))</f>
+        <v>2000</v>
+      </c>
+      <c r="K11" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B12" s="35">
+        <v>9</v>
+      </c>
+      <c r="C12" s="35"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="67">
+        <v>500</v>
+      </c>
+      <c r="G12" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" s="68" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" s="39">
+        <f t="shared" ref="J12:N15" si="2">IF(AND($E12=J$4, OR($I12="P", $I12="T", $I12="C")), $F12,IF(AND($G12=J$4,OR($I12="R", $I12="T")),$F12*-1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="39">
+        <f t="shared" si="0"/>
+        <v>-500</v>
+      </c>
+      <c r="M12" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="1"/>
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B13" s="35">
+        <v>10</v>
+      </c>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B14" s="35">
+        <v>11</v>
+      </c>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B15" s="35">
+        <v>12</v>
+      </c>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="35">
+        <f>SUM(F5:F15)</f>
+        <v>5600</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="71">
+        <f>SUM(J5:J15)</f>
+        <v>1100</v>
+      </c>
+      <c r="K16" s="71">
+        <f>SUM(K5:K15)</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="71">
+        <f>SUM(L5:L15)</f>
+        <v>-500</v>
+      </c>
+      <c r="M16" s="71">
+        <f>SUM(M5:M15)</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="71">
+        <f>SUM(N5:N15)</f>
+        <v>0</v>
+      </c>
+      <c r="O16" s="71"/>
+      <c r="P16" s="71"/>
+      <c r="Q16" s="71"/>
+      <c r="R16" s="71">
+        <f>SUM(R5:R15)</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="21" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L21" t="b">
+        <f>AND(I12="R", G12="jose")</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="H4:I4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>